--- a/biology/Médecine/Syndrome_platypnée-orthodéoxie/Syndrome_platypnée-orthodéoxie.xlsx
+++ b/biology/Médecine/Syndrome_platypnée-orthodéoxie/Syndrome_platypnée-orthodéoxie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_platypn%C3%A9e-orthod%C3%A9oxie</t>
+          <t>Syndrome_platypnée-orthodéoxie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome platypnée-orthodéoxie [1]   est  un  syndrome  positionnel  rare,  et  souvent méconnu,  combinant  une  dyspnée (essoufflement) à  la  station debout/assis associée à une hypoxémie artérielle (orthodéoxie). Les symptômes sont améliorés en position allongée (platypnée). 
-Il s’agit d’un diagnostic difficile  et  dont  les  circonstances  d’apparition sont  sujettes  à  de  nombreuses  interprétations. Ces circonstances sont souvent en relation avec un contexte favorisant un  passage anormal de sang désoxygènée des cavités doites cardiaques dans les cavités gauche. La présence d'un foramen ovale perméable (FOP), retrouvé dans 25 % de la population générale, généralement sans conséquence, mais associés à des circonstances particulières, favorise un shunt droit-gauche (embolie pulmonaire, modification structurelle post-opératoire, etc. etc) qui peut être une explication au syndrome. Il doit être recherché en cas d'hypoxémie réfractaire par une échocardiographie cardiaque transoesophagienne avec injection d'un produit de contraste (microbulles), éventuellement aidée d'une manœuvre de Valsalva.  On retrouve également ce syndrome dans des atteintes extra-cardiaques, notamment lors du syndrome hépato-pulmonaire ou de shunts intra-pulmonaires[2].
-Ce syndrome a été décrit pour la première fois en 1949[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome platypnée-orthodéoxie    est  un  syndrome  positionnel  rare,  et  souvent méconnu,  combinant  une  dyspnée (essoufflement) à  la  station debout/assis associée à une hypoxémie artérielle (orthodéoxie). Les symptômes sont améliorés en position allongée (platypnée). 
+Il s’agit d’un diagnostic difficile  et  dont  les  circonstances  d’apparition sont  sujettes  à  de  nombreuses  interprétations. Ces circonstances sont souvent en relation avec un contexte favorisant un  passage anormal de sang désoxygènée des cavités doites cardiaques dans les cavités gauche. La présence d'un foramen ovale perméable (FOP), retrouvé dans 25 % de la population générale, généralement sans conséquence, mais associés à des circonstances particulières, favorise un shunt droit-gauche (embolie pulmonaire, modification structurelle post-opératoire, etc. etc) qui peut être une explication au syndrome. Il doit être recherché en cas d'hypoxémie réfractaire par une échocardiographie cardiaque transoesophagienne avec injection d'un produit de contraste (microbulles), éventuellement aidée d'une manœuvre de Valsalva.  On retrouve également ce syndrome dans des atteintes extra-cardiaques, notamment lors du syndrome hépato-pulmonaire ou de shunts intra-pulmonaires.
+Ce syndrome a été décrit pour la première fois en 1949.
 </t>
         </is>
       </c>
